--- a/data/resume.xlsx
+++ b/data/resume.xlsx
@@ -70,7 +70,7 @@
     <t>About Me</t>
   </si>
   <si>
-    <t>I am currently working as a Senior Statistical Programmer Analyst in Menlo Park at GRAIL and love getting challenged at my current role. I have a level of expertise in both R and Excel that helps me both manipulate and analyze data as well as automate monthly tedious tasks. With the mind of a tutor, I make sure to document everything and answer questions quickly and efficiently when I explain my methodology to coworkers or clients. I am reaching out to companies and teams with needs for data science improvement to reduce human error and increase efficiency. Reach out to me if you have a project we can work on together or just reach out for a conversation.</t>
+    <t>I am working as a Senior Statistical Programmer Analyst in Menlo Park, CA at GRAIL and love getting challenged at my current role. I have a level of expertise in both R and Excel that helps me both manipulate and analyze data as well as automate monthly tedious tasks. With the mind of a tutor, I make sure to document everything and answer questions quickly and efficiently when I explain my methodology to coworkers or clients. I am reaching out to companies and teams with needs for data science improvement to reduce human error and increase efficiency. Reach out to me if you have a project we can work on together or just reach out for a conversation.</t>
   </si>
   <si>
     <t>Education</t>

--- a/data/resume.xlsx
+++ b/data/resume.xlsx
@@ -100,7 +100,7 @@
     <t>GRAIL</t>
   </si>
   <si>
-    <t>Menlo Park</t>
+    <t>Menlo Park, CA</t>
   </si>
   <si>
     <t>February 2021</t>
@@ -640,7 +640,7 @@
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">

--- a/data/resume.xlsx
+++ b/data/resume.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>section</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Irvine, CA</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t>Major in Mathematics</t>
@@ -268,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,6 +280,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -608,14 +614,14 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1">
-        <v>2018.0</v>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -629,91 +635,91 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="R4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -724,49 +730,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="O6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -774,13 +780,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -795,16 +801,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>68</v>
+      <c r="I8" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -818,13 +824,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -839,13 +845,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>

--- a/data/resume.xlsx
+++ b/data/resume.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniehussey/website/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F20A3-46D3-304E-8898-C85B67523E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>section</t>
   </si>
@@ -70,9 +79,6 @@
     <t>About Me</t>
   </si>
   <si>
-    <t>I am working as a Senior Statistical Programmer Analyst in Menlo Park, CA at GRAIL and love getting challenged at my current role. I have a level of expertise in both R and Excel that helps me both manipulate and analyze data as well as automate monthly tedious tasks. With the mind of a tutor, I make sure to document everything and answer questions quickly and efficiently when I explain my methodology to coworkers or clients. I am reaching out to companies and teams with needs for data science improvement to reduce human error and increase efficiency. Reach out to me if you have a project we can work on together or just reach out for a conversation.</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -109,22 +115,10 @@
     <t>February 2021</t>
   </si>
   <si>
-    <t>Creating and documenting new Derived Variables for ongoing studies using Git for collaboration and R for coding</t>
-  </si>
-  <si>
-    <t>Performing Code Reviews and Independent Analysis for cancer and subject level datasets</t>
-  </si>
-  <si>
-    <t>Creating new R Markdowns for documentation purposes and validations of dozens of TFLs (Tables, Figures, and Listings)</t>
-  </si>
-  <si>
     <t>Author new R Packages now used in production coding across company</t>
   </si>
   <si>
     <t>Provide statistical programming support to data cleaning and locking activities, pre-defined and exploratory analysis, formal reports, publications, presentations, and new statistical methodologies</t>
-  </si>
-  <si>
-    <t>Work closely with biostatisticians to create data and analysis program specifications based on the statistical analysis plan (SAP)</t>
   </si>
   <si>
     <t>Maintain complete and auditable programming documentation for analysis of clinical studies</t>
@@ -184,9 +178,6 @@
     <t>March 2020</t>
   </si>
   <si>
-    <t>Automated the CRG (Community Rated Groups) Band Renewal Process in R (4 hour process that now takes 1 minute)</t>
-  </si>
-  <si>
     <t>Developed the demographic and plan risk factors for AMS and Underwriting Department (now automated in R)</t>
   </si>
   <si>
@@ -234,27 +225,82 @@
   <si>
     <t>President and Founder of League of Actuaries at UC Irvine</t>
   </si>
+  <si>
+    <t>I am working as a Senior Data Scientist in Menlo Park, CA at GRAIL and love getting challenged at my current role. I have a level of expertise in both R and Excel that helps me both manipulate and analyze data as well as automate monthly tedious tasks. With the mind of a tutor, I make sure to document everything and answer questions quickly and efficiently when I explain my methodology to coworkers or clients. Let’s have a chat so I can help your data from beginning to end.</t>
+  </si>
+  <si>
+    <t>Author and maintain new R Packages used on cross production within entire company</t>
+  </si>
+  <si>
+    <t>Perform Code Reviews and Independent Analysis for cancer and subject level datasets</t>
+  </si>
+  <si>
+    <t>Create new R Markdowns to display hundreds of TFLs (Tables, Figures, and Listings) in order to assess clinical trial accuracy</t>
+  </si>
+  <si>
+    <t>Create and document new Derived Variables for ongoing studies using Git for collaboratio, R for coding, and AWS for cloud storage</t>
+  </si>
+  <si>
+    <t>Work closely with biostatisticians to create data and analysis program specifications based on the statistical analysis plan (SAP) and Statistical Process Control</t>
+  </si>
+  <si>
+    <t>Utilize R programming to analyze survival data and assess risk factors</t>
+  </si>
+  <si>
+    <t>description_12</t>
+  </si>
+  <si>
+    <t>description_13</t>
+  </si>
+  <si>
+    <t>description_14</t>
+  </si>
+  <si>
+    <t>Automated the CRG (Community Rated Groups) Band Renewal Process in R (8 hour process that now takes 1 minute)</t>
+  </si>
+  <si>
+    <t>Literally made this resume and website using R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,49 +308,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -494,31 +542,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="35.0"/>
-    <col customWidth="1" min="4" max="4" width="28.0"/>
-    <col customWidth="1" min="5" max="5" width="14.29"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="18" width="23.86"/>
-    <col customWidth="1" min="19" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="18" width="23.83203125" customWidth="1"/>
+    <col min="19" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +623,17 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="S1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -584,8 +643,8 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
+      <c r="H2" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -598,30 +657,30 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -633,93 +692,104 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="P4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="R4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
+      <c r="U4" s="5" t="s">
+        <v>74</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:21" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -728,65 +798,65 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -799,20 +869,22 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>69</v>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -822,15 +894,15 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -843,15 +915,15 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -864,7 +936,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -877,7 +949,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -890,7 +962,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -903,7 +975,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -916,7 +988,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -929,7 +1001,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -942,7 +1014,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -955,7 +1027,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -968,7 +1040,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -981,7 +1053,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -994,7 +1066,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1007,7 +1079,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1020,7 +1092,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1033,7 +1105,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1046,7 +1118,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1059,7 +1131,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1072,7 +1144,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1085,7 +1157,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1098,7 +1170,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1111,7 +1183,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1124,7 +1196,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1137,7 +1209,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1150,7 +1222,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1163,7 +1235,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1176,7 +1248,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1189,7 +1261,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1202,7 +1274,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1215,7 +1287,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1228,7 +1300,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1241,7 +1313,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1254,7 +1326,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1267,7 +1339,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1280,7 +1352,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1293,7 +1365,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1306,7 +1378,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -1319,7 +1391,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1332,7 +1404,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1345,7 +1417,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1358,7 +1430,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1371,7 +1443,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1384,7 +1456,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -1397,7 +1469,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -1410,7 +1482,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -1423,7 +1495,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -1436,7 +1508,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -1449,7 +1521,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -1462,7 +1534,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -1475,7 +1547,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -1488,7 +1560,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1501,7 +1573,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -1514,7 +1586,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -1527,7 +1599,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -1540,7 +1612,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -1553,7 +1625,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -1566,7 +1638,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -1579,7 +1651,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -1592,7 +1664,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -1605,7 +1677,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -1618,7 +1690,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -1631,7 +1703,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -1644,7 +1716,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -1657,7 +1729,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -1670,7 +1742,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -1683,7 +1755,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -1696,7 +1768,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -1709,7 +1781,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -1722,7 +1794,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -1735,7 +1807,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -1748,7 +1820,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -1761,7 +1833,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -1774,7 +1846,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -1787,7 +1859,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -1800,7 +1872,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -1813,7 +1885,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -1826,7 +1898,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -1839,7 +1911,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -1852,7 +1924,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -1865,7 +1937,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -1878,7 +1950,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -1891,7 +1963,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -1904,7 +1976,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -1917,7 +1989,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -1930,7 +2002,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -1943,7 +2015,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -1956,7 +2028,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -1969,7 +2041,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -1982,7 +2054,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -1995,7 +2067,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -2008,7 +2080,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -2021,7 +2093,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -2034,7 +2106,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -2047,7 +2119,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -2060,7 +2132,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -2073,7 +2145,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -2086,7 +2158,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -2099,7 +2171,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -2112,7 +2184,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -2125,7 +2197,7 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -2138,7 +2210,7 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -2151,7 +2223,7 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -2164,7 +2236,7 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -2177,7 +2249,7 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -2190,7 +2262,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -2203,7 +2275,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -2216,7 +2288,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -2229,7 +2301,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -2242,7 +2314,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -2255,7 +2327,7 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -2268,7 +2340,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -2281,7 +2353,7 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -2294,7 +2366,7 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -2307,7 +2379,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -2320,7 +2392,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -2333,7 +2405,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -2346,7 +2418,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -2359,7 +2431,7 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -2372,7 +2444,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -2385,7 +2457,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -2398,7 +2470,7 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -2411,7 +2483,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -2424,7 +2496,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -2437,7 +2509,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -2450,7 +2522,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -2463,7 +2535,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -2476,7 +2548,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -2489,7 +2561,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
@@ -2502,7 +2574,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -2515,7 +2587,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -2528,7 +2600,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
@@ -2541,7 +2613,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -2554,7 +2626,7 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -2567,7 +2639,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -2580,7 +2652,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -2593,7 +2665,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -2606,7 +2678,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -2619,7 +2691,7 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -2632,7 +2704,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -2645,7 +2717,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -2658,7 +2730,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -2671,7 +2743,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -2684,7 +2756,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -2697,7 +2769,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -2710,7 +2782,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -2723,7 +2795,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -2736,7 +2808,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -2749,7 +2821,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -2762,7 +2834,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -2775,7 +2847,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -2788,7 +2860,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -2801,7 +2873,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -2814,7 +2886,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -2827,7 +2899,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -2840,7 +2912,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -2853,7 +2925,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -2866,7 +2938,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -2879,7 +2951,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -2892,7 +2964,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -2905,7 +2977,7 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -2918,7 +2990,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -2931,7 +3003,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -2944,7 +3016,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -2957,7 +3029,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -2970,7 +3042,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -2983,7 +3055,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
@@ -2996,7 +3068,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -3009,7 +3081,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -3022,7 +3094,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -3035,7 +3107,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -3048,7 +3120,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -3061,7 +3133,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -3074,7 +3146,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -3087,7 +3159,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -3100,7 +3172,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -3113,7 +3185,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
@@ -3126,7 +3198,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -3139,7 +3211,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -3152,7 +3224,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -3165,7 +3237,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -3178,7 +3250,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -3191,7 +3263,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -3204,7 +3276,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -3217,7 +3289,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -3230,7 +3302,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -3243,7 +3315,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -3256,7 +3328,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -3269,7 +3341,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -3282,7 +3354,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -3295,7 +3367,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -3308,7 +3380,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -3321,7 +3393,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -3334,7 +3406,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -3347,7 +3419,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -3360,7 +3432,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
@@ -3373,7 +3445,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
@@ -3386,7 +3458,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
@@ -3399,7 +3471,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -3412,7 +3484,7 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
@@ -3425,7 +3497,7 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
@@ -3438,7 +3510,7 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -3451,7 +3523,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -3464,7 +3536,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -3477,7 +3549,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
@@ -3490,7 +3562,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
@@ -3503,7 +3575,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -3516,7 +3588,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -3529,7 +3601,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
@@ -3542,7 +3614,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
@@ -3555,7 +3627,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
@@ -3568,7 +3640,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -3581,7 +3653,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
@@ -3594,7 +3666,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -3607,7 +3679,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -3620,7 +3692,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
@@ -3633,7 +3705,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
@@ -3646,7 +3718,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
@@ -3659,7 +3731,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
@@ -3672,7 +3744,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
@@ -3685,7 +3757,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
@@ -3698,7 +3770,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -3711,7 +3783,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
@@ -3724,7 +3796,7 @@
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
@@ -3737,7 +3809,7 @@
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
@@ -3750,7 +3822,7 @@
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -3763,7 +3835,7 @@
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -3776,7 +3848,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -3789,7 +3861,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -3802,7 +3874,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
@@ -3815,7 +3887,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
@@ -3828,7 +3900,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
@@ -3841,7 +3913,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
@@ -3854,7 +3926,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
@@ -3867,7 +3939,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
@@ -3880,7 +3952,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
@@ -3893,7 +3965,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
@@ -3906,7 +3978,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
@@ -3919,7 +3991,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
@@ -3932,7 +4004,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
@@ -3945,7 +4017,7 @@
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
@@ -3958,7 +4030,7 @@
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
@@ -3971,7 +4043,7 @@
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
@@ -3984,7 +4056,7 @@
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
@@ -3997,7 +4069,7 @@
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
@@ -4010,7 +4082,7 @@
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
@@ -4023,7 +4095,7 @@
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
@@ -4036,7 +4108,7 @@
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
@@ -4049,7 +4121,7 @@
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
@@ -4062,7 +4134,7 @@
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
@@ -4075,7 +4147,7 @@
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
@@ -4088,7 +4160,7 @@
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -4101,7 +4173,7 @@
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -4114,7 +4186,7 @@
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
@@ -4127,7 +4199,7 @@
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
@@ -4140,7 +4212,7 @@
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -4153,7 +4225,7 @@
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
@@ -4166,7 +4238,7 @@
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
@@ -4179,7 +4251,7 @@
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
@@ -4192,7 +4264,7 @@
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
@@ -4205,7 +4277,7 @@
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
@@ -4218,7 +4290,7 @@
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
@@ -4231,7 +4303,7 @@
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
@@ -4244,7 +4316,7 @@
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
@@ -4257,7 +4329,7 @@
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
@@ -4270,7 +4342,7 @@
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
@@ -4283,7 +4355,7 @@
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
@@ -4296,7 +4368,7 @@
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
@@ -4309,7 +4381,7 @@
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
@@ -4322,7 +4394,7 @@
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
@@ -4335,7 +4407,7 @@
       <c r="Q277" s="2"/>
       <c r="R277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
@@ -4348,7 +4420,7 @@
       <c r="Q278" s="2"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
@@ -4361,7 +4433,7 @@
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
@@ -4374,7 +4446,7 @@
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
@@ -4387,7 +4459,7 @@
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
@@ -4400,7 +4472,7 @@
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
@@ -4413,7 +4485,7 @@
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
@@ -4426,7 +4498,7 @@
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
@@ -4439,7 +4511,7 @@
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
@@ -4452,7 +4524,7 @@
       <c r="Q286" s="2"/>
       <c r="R286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
@@ -4465,7 +4537,7 @@
       <c r="Q287" s="2"/>
       <c r="R287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
@@ -4478,7 +4550,7 @@
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
@@ -4491,7 +4563,7 @@
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
@@ -4504,7 +4576,7 @@
       <c r="Q290" s="2"/>
       <c r="R290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
@@ -4517,7 +4589,7 @@
       <c r="Q291" s="2"/>
       <c r="R291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
@@ -4530,7 +4602,7 @@
       <c r="Q292" s="2"/>
       <c r="R292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
@@ -4543,7 +4615,7 @@
       <c r="Q293" s="2"/>
       <c r="R293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
@@ -4556,7 +4628,7 @@
       <c r="Q294" s="2"/>
       <c r="R294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
@@ -4569,7 +4641,7 @@
       <c r="Q295" s="2"/>
       <c r="R295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
@@ -4582,7 +4654,7 @@
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
@@ -4595,7 +4667,7 @@
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
@@ -4608,7 +4680,7 @@
       <c r="Q298" s="2"/>
       <c r="R298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
@@ -4621,7 +4693,7 @@
       <c r="Q299" s="2"/>
       <c r="R299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
@@ -4634,7 +4706,7 @@
       <c r="Q300" s="2"/>
       <c r="R300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
@@ -4647,7 +4719,7 @@
       <c r="Q301" s="2"/>
       <c r="R301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
@@ -4660,7 +4732,7 @@
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
@@ -4673,7 +4745,7 @@
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
@@ -4686,7 +4758,7 @@
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
@@ -4699,7 +4771,7 @@
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
@@ -4712,7 +4784,7 @@
       <c r="Q306" s="2"/>
       <c r="R306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
@@ -4725,7 +4797,7 @@
       <c r="Q307" s="2"/>
       <c r="R307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
@@ -4738,7 +4810,7 @@
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
@@ -4751,7 +4823,7 @@
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
@@ -4764,7 +4836,7 @@
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
@@ -4777,7 +4849,7 @@
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
@@ -4790,7 +4862,7 @@
       <c r="Q312" s="2"/>
       <c r="R312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
@@ -4803,7 +4875,7 @@
       <c r="Q313" s="2"/>
       <c r="R313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
@@ -4816,7 +4888,7 @@
       <c r="Q314" s="2"/>
       <c r="R314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
@@ -4829,7 +4901,7 @@
       <c r="Q315" s="2"/>
       <c r="R315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
@@ -4842,7 +4914,7 @@
       <c r="Q316" s="2"/>
       <c r="R316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
@@ -4855,7 +4927,7 @@
       <c r="Q317" s="2"/>
       <c r="R317" s="2"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
@@ -4868,7 +4940,7 @@
       <c r="Q318" s="2"/>
       <c r="R318" s="2"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
@@ -4881,7 +4953,7 @@
       <c r="Q319" s="2"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
@@ -4894,7 +4966,7 @@
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
@@ -4907,7 +4979,7 @@
       <c r="Q321" s="2"/>
       <c r="R321" s="2"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
@@ -4920,7 +4992,7 @@
       <c r="Q322" s="2"/>
       <c r="R322" s="2"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
@@ -4933,7 +5005,7 @@
       <c r="Q323" s="2"/>
       <c r="R323" s="2"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
@@ -4946,7 +5018,7 @@
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
@@ -4959,7 +5031,7 @@
       <c r="Q325" s="2"/>
       <c r="R325" s="2"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
@@ -4972,7 +5044,7 @@
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
@@ -4985,7 +5057,7 @@
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
@@ -4998,7 +5070,7 @@
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
@@ -5011,7 +5083,7 @@
       <c r="Q329" s="2"/>
       <c r="R329" s="2"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
@@ -5024,7 +5096,7 @@
       <c r="Q330" s="2"/>
       <c r="R330" s="2"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
@@ -5037,7 +5109,7 @@
       <c r="Q331" s="2"/>
       <c r="R331" s="2"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
@@ -5050,7 +5122,7 @@
       <c r="Q332" s="2"/>
       <c r="R332" s="2"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
@@ -5063,7 +5135,7 @@
       <c r="Q333" s="2"/>
       <c r="R333" s="2"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
@@ -5076,7 +5148,7 @@
       <c r="Q334" s="2"/>
       <c r="R334" s="2"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
@@ -5089,7 +5161,7 @@
       <c r="Q335" s="2"/>
       <c r="R335" s="2"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
@@ -5102,7 +5174,7 @@
       <c r="Q336" s="2"/>
       <c r="R336" s="2"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
@@ -5115,7 +5187,7 @@
       <c r="Q337" s="2"/>
       <c r="R337" s="2"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -5128,7 +5200,7 @@
       <c r="Q338" s="2"/>
       <c r="R338" s="2"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
@@ -5141,7 +5213,7 @@
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
@@ -5154,7 +5226,7 @@
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
@@ -5167,7 +5239,7 @@
       <c r="Q341" s="2"/>
       <c r="R341" s="2"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
@@ -5180,7 +5252,7 @@
       <c r="Q342" s="2"/>
       <c r="R342" s="2"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
@@ -5193,7 +5265,7 @@
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -5206,7 +5278,7 @@
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -5219,7 +5291,7 @@
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
@@ -5232,7 +5304,7 @@
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
@@ -5245,7 +5317,7 @@
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
@@ -5258,7 +5330,7 @@
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -5271,7 +5343,7 @@
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -5284,7 +5356,7 @@
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -5297,7 +5369,7 @@
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
@@ -5310,7 +5382,7 @@
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -5323,7 +5395,7 @@
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
@@ -5336,7 +5408,7 @@
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
@@ -5349,7 +5421,7 @@
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
@@ -5362,7 +5434,7 @@
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
@@ -5375,7 +5447,7 @@
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
@@ -5388,7 +5460,7 @@
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -5401,7 +5473,7 @@
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -5414,7 +5486,7 @@
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
@@ -5427,7 +5499,7 @@
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
@@ -5440,7 +5512,7 @@
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
@@ -5453,7 +5525,7 @@
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
@@ -5466,7 +5538,7 @@
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
@@ -5479,7 +5551,7 @@
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
@@ -5492,7 +5564,7 @@
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -5505,7 +5577,7 @@
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
@@ -5518,7 +5590,7 @@
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
@@ -5531,7 +5603,7 @@
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
@@ -5544,7 +5616,7 @@
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
@@ -5557,7 +5629,7 @@
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -5570,7 +5642,7 @@
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
@@ -5583,7 +5655,7 @@
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
@@ -5596,7 +5668,7 @@
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
@@ -5609,7 +5681,7 @@
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -5622,7 +5694,7 @@
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
@@ -5635,7 +5707,7 @@
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
@@ -5648,7 +5720,7 @@
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
@@ -5661,7 +5733,7 @@
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
@@ -5674,7 +5746,7 @@
       <c r="Q380" s="2"/>
       <c r="R380" s="2"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
@@ -5687,7 +5759,7 @@
       <c r="Q381" s="2"/>
       <c r="R381" s="2"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
@@ -5700,7 +5772,7 @@
       <c r="Q382" s="2"/>
       <c r="R382" s="2"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -5713,7 +5785,7 @@
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -5726,7 +5798,7 @@
       <c r="Q384" s="2"/>
       <c r="R384" s="2"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -5739,7 +5811,7 @@
       <c r="Q385" s="2"/>
       <c r="R385" s="2"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
@@ -5752,7 +5824,7 @@
       <c r="Q386" s="2"/>
       <c r="R386" s="2"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
@@ -5765,7 +5837,7 @@
       <c r="Q387" s="2"/>
       <c r="R387" s="2"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
@@ -5778,7 +5850,7 @@
       <c r="Q388" s="2"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
@@ -5791,7 +5863,7 @@
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
@@ -5804,7 +5876,7 @@
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
@@ -5817,7 +5889,7 @@
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
@@ -5830,7 +5902,7 @@
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
@@ -5843,7 +5915,7 @@
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
@@ -5856,7 +5928,7 @@
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
@@ -5869,7 +5941,7 @@
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
@@ -5882,7 +5954,7 @@
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
@@ -5895,7 +5967,7 @@
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
@@ -5908,7 +5980,7 @@
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
@@ -5921,7 +5993,7 @@
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
@@ -5934,7 +6006,7 @@
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
@@ -5947,7 +6019,7 @@
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
@@ -5960,7 +6032,7 @@
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
@@ -5973,7 +6045,7 @@
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
@@ -5986,7 +6058,7 @@
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
@@ -5999,7 +6071,7 @@
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
@@ -6012,7 +6084,7 @@
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
@@ -6025,7 +6097,7 @@
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
@@ -6038,7 +6110,7 @@
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
@@ -6051,7 +6123,7 @@
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
@@ -6064,7 +6136,7 @@
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
@@ -6077,7 +6149,7 @@
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
@@ -6090,7 +6162,7 @@
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
@@ -6103,7 +6175,7 @@
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
@@ -6116,7 +6188,7 @@
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
@@ -6129,7 +6201,7 @@
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
@@ -6142,7 +6214,7 @@
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
@@ -6155,7 +6227,7 @@
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
@@ -6168,7 +6240,7 @@
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
@@ -6181,7 +6253,7 @@
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
@@ -6194,7 +6266,7 @@
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
@@ -6207,7 +6279,7 @@
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
@@ -6220,7 +6292,7 @@
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
@@ -6233,7 +6305,7 @@
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
@@ -6246,7 +6318,7 @@
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
@@ -6259,7 +6331,7 @@
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
@@ -6272,7 +6344,7 @@
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
@@ -6285,7 +6357,7 @@
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
@@ -6298,7 +6370,7 @@
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
@@ -6311,7 +6383,7 @@
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
@@ -6324,7 +6396,7 @@
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
@@ -6337,7 +6409,7 @@
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
@@ -6350,7 +6422,7 @@
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
@@ -6363,7 +6435,7 @@
       <c r="Q433" s="2"/>
       <c r="R433" s="2"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
@@ -6376,7 +6448,7 @@
       <c r="Q434" s="2"/>
       <c r="R434" s="2"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
@@ -6389,7 +6461,7 @@
       <c r="Q435" s="2"/>
       <c r="R435" s="2"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
@@ -6402,7 +6474,7 @@
       <c r="Q436" s="2"/>
       <c r="R436" s="2"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
@@ -6415,7 +6487,7 @@
       <c r="Q437" s="2"/>
       <c r="R437" s="2"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
@@ -6428,7 +6500,7 @@
       <c r="Q438" s="2"/>
       <c r="R438" s="2"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
@@ -6441,7 +6513,7 @@
       <c r="Q439" s="2"/>
       <c r="R439" s="2"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
@@ -6454,7 +6526,7 @@
       <c r="Q440" s="2"/>
       <c r="R440" s="2"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
@@ -6467,7 +6539,7 @@
       <c r="Q441" s="2"/>
       <c r="R441" s="2"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
@@ -6480,7 +6552,7 @@
       <c r="Q442" s="2"/>
       <c r="R442" s="2"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
@@ -6493,7 +6565,7 @@
       <c r="Q443" s="2"/>
       <c r="R443" s="2"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
@@ -6506,7 +6578,7 @@
       <c r="Q444" s="2"/>
       <c r="R444" s="2"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
@@ -6519,7 +6591,7 @@
       <c r="Q445" s="2"/>
       <c r="R445" s="2"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
@@ -6532,7 +6604,7 @@
       <c r="Q446" s="2"/>
       <c r="R446" s="2"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
@@ -6545,7 +6617,7 @@
       <c r="Q447" s="2"/>
       <c r="R447" s="2"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
@@ -6558,7 +6630,7 @@
       <c r="Q448" s="2"/>
       <c r="R448" s="2"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
@@ -6571,7 +6643,7 @@
       <c r="Q449" s="2"/>
       <c r="R449" s="2"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
@@ -6584,7 +6656,7 @@
       <c r="Q450" s="2"/>
       <c r="R450" s="2"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
@@ -6597,7 +6669,7 @@
       <c r="Q451" s="2"/>
       <c r="R451" s="2"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
@@ -6610,7 +6682,7 @@
       <c r="Q452" s="2"/>
       <c r="R452" s="2"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
@@ -6623,7 +6695,7 @@
       <c r="Q453" s="2"/>
       <c r="R453" s="2"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
@@ -6636,7 +6708,7 @@
       <c r="Q454" s="2"/>
       <c r="R454" s="2"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
@@ -6649,7 +6721,7 @@
       <c r="Q455" s="2"/>
       <c r="R455" s="2"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
@@ -6662,7 +6734,7 @@
       <c r="Q456" s="2"/>
       <c r="R456" s="2"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
@@ -6675,7 +6747,7 @@
       <c r="Q457" s="2"/>
       <c r="R457" s="2"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
@@ -6688,7 +6760,7 @@
       <c r="Q458" s="2"/>
       <c r="R458" s="2"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
@@ -6701,7 +6773,7 @@
       <c r="Q459" s="2"/>
       <c r="R459" s="2"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
@@ -6714,7 +6786,7 @@
       <c r="Q460" s="2"/>
       <c r="R460" s="2"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
@@ -6727,7 +6799,7 @@
       <c r="Q461" s="2"/>
       <c r="R461" s="2"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
@@ -6740,7 +6812,7 @@
       <c r="Q462" s="2"/>
       <c r="R462" s="2"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
@@ -6753,7 +6825,7 @@
       <c r="Q463" s="2"/>
       <c r="R463" s="2"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
@@ -6766,7 +6838,7 @@
       <c r="Q464" s="2"/>
       <c r="R464" s="2"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
@@ -6779,7 +6851,7 @@
       <c r="Q465" s="2"/>
       <c r="R465" s="2"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
@@ -6792,7 +6864,7 @@
       <c r="Q466" s="2"/>
       <c r="R466" s="2"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
@@ -6805,7 +6877,7 @@
       <c r="Q467" s="2"/>
       <c r="R467" s="2"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
@@ -6818,7 +6890,7 @@
       <c r="Q468" s="2"/>
       <c r="R468" s="2"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
@@ -6831,7 +6903,7 @@
       <c r="Q469" s="2"/>
       <c r="R469" s="2"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
@@ -6844,7 +6916,7 @@
       <c r="Q470" s="2"/>
       <c r="R470" s="2"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
@@ -6857,7 +6929,7 @@
       <c r="Q471" s="2"/>
       <c r="R471" s="2"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
@@ -6870,7 +6942,7 @@
       <c r="Q472" s="2"/>
       <c r="R472" s="2"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
@@ -6883,7 +6955,7 @@
       <c r="Q473" s="2"/>
       <c r="R473" s="2"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
@@ -6896,7 +6968,7 @@
       <c r="Q474" s="2"/>
       <c r="R474" s="2"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
@@ -6909,7 +6981,7 @@
       <c r="Q475" s="2"/>
       <c r="R475" s="2"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
@@ -6922,7 +6994,7 @@
       <c r="Q476" s="2"/>
       <c r="R476" s="2"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
@@ -6935,7 +7007,7 @@
       <c r="Q477" s="2"/>
       <c r="R477" s="2"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
@@ -6948,7 +7020,7 @@
       <c r="Q478" s="2"/>
       <c r="R478" s="2"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
@@ -6961,7 +7033,7 @@
       <c r="Q479" s="2"/>
       <c r="R479" s="2"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
@@ -6974,7 +7046,7 @@
       <c r="Q480" s="2"/>
       <c r="R480" s="2"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
@@ -6987,7 +7059,7 @@
       <c r="Q481" s="2"/>
       <c r="R481" s="2"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
@@ -7000,7 +7072,7 @@
       <c r="Q482" s="2"/>
       <c r="R482" s="2"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
@@ -7013,7 +7085,7 @@
       <c r="Q483" s="2"/>
       <c r="R483" s="2"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
@@ -7026,7 +7098,7 @@
       <c r="Q484" s="2"/>
       <c r="R484" s="2"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
@@ -7039,7 +7111,7 @@
       <c r="Q485" s="2"/>
       <c r="R485" s="2"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
@@ -7052,7 +7124,7 @@
       <c r="Q486" s="2"/>
       <c r="R486" s="2"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
@@ -7065,7 +7137,7 @@
       <c r="Q487" s="2"/>
       <c r="R487" s="2"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
@@ -7078,7 +7150,7 @@
       <c r="Q488" s="2"/>
       <c r="R488" s="2"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
@@ -7091,7 +7163,7 @@
       <c r="Q489" s="2"/>
       <c r="R489" s="2"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
@@ -7104,7 +7176,7 @@
       <c r="Q490" s="2"/>
       <c r="R490" s="2"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
@@ -7117,7 +7189,7 @@
       <c r="Q491" s="2"/>
       <c r="R491" s="2"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
@@ -7130,7 +7202,7 @@
       <c r="Q492" s="2"/>
       <c r="R492" s="2"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
@@ -7143,7 +7215,7 @@
       <c r="Q493" s="2"/>
       <c r="R493" s="2"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
@@ -7156,7 +7228,7 @@
       <c r="Q494" s="2"/>
       <c r="R494" s="2"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
@@ -7169,7 +7241,7 @@
       <c r="Q495" s="2"/>
       <c r="R495" s="2"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -7182,7 +7254,7 @@
       <c r="Q496" s="2"/>
       <c r="R496" s="2"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -7195,7 +7267,7 @@
       <c r="Q497" s="2"/>
       <c r="R497" s="2"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
@@ -7208,7 +7280,7 @@
       <c r="Q498" s="2"/>
       <c r="R498" s="2"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
@@ -7221,7 +7293,7 @@
       <c r="Q499" s="2"/>
       <c r="R499" s="2"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
@@ -7234,7 +7306,7 @@
       <c r="Q500" s="2"/>
       <c r="R500" s="2"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
@@ -7247,7 +7319,7 @@
       <c r="Q501" s="2"/>
       <c r="R501" s="2"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
@@ -7260,7 +7332,7 @@
       <c r="Q502" s="2"/>
       <c r="R502" s="2"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
@@ -7273,7 +7345,7 @@
       <c r="Q503" s="2"/>
       <c r="R503" s="2"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
@@ -7286,7 +7358,7 @@
       <c r="Q504" s="2"/>
       <c r="R504" s="2"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
@@ -7299,7 +7371,7 @@
       <c r="Q505" s="2"/>
       <c r="R505" s="2"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
@@ -7312,7 +7384,7 @@
       <c r="Q506" s="2"/>
       <c r="R506" s="2"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
@@ -7325,7 +7397,7 @@
       <c r="Q507" s="2"/>
       <c r="R507" s="2"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H508" s="2"/>
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
@@ -7338,7 +7410,7 @@
       <c r="Q508" s="2"/>
       <c r="R508" s="2"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H509" s="2"/>
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
@@ -7351,7 +7423,7 @@
       <c r="Q509" s="2"/>
       <c r="R509" s="2"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H510" s="2"/>
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
@@ -7364,7 +7436,7 @@
       <c r="Q510" s="2"/>
       <c r="R510" s="2"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H511" s="2"/>
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
@@ -7377,7 +7449,7 @@
       <c r="Q511" s="2"/>
       <c r="R511" s="2"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H512" s="2"/>
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
@@ -7390,7 +7462,7 @@
       <c r="Q512" s="2"/>
       <c r="R512" s="2"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
@@ -7403,7 +7475,7 @@
       <c r="Q513" s="2"/>
       <c r="R513" s="2"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
@@ -7416,7 +7488,7 @@
       <c r="Q514" s="2"/>
       <c r="R514" s="2"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
@@ -7429,7 +7501,7 @@
       <c r="Q515" s="2"/>
       <c r="R515" s="2"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
@@ -7442,7 +7514,7 @@
       <c r="Q516" s="2"/>
       <c r="R516" s="2"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H517" s="2"/>
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
@@ -7455,7 +7527,7 @@
       <c r="Q517" s="2"/>
       <c r="R517" s="2"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
@@ -7468,7 +7540,7 @@
       <c r="Q518" s="2"/>
       <c r="R518" s="2"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
@@ -7481,7 +7553,7 @@
       <c r="Q519" s="2"/>
       <c r="R519" s="2"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
@@ -7494,7 +7566,7 @@
       <c r="Q520" s="2"/>
       <c r="R520" s="2"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H521" s="2"/>
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
@@ -7507,7 +7579,7 @@
       <c r="Q521" s="2"/>
       <c r="R521" s="2"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
@@ -7520,7 +7592,7 @@
       <c r="Q522" s="2"/>
       <c r="R522" s="2"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
@@ -7533,7 +7605,7 @@
       <c r="Q523" s="2"/>
       <c r="R523" s="2"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
@@ -7546,7 +7618,7 @@
       <c r="Q524" s="2"/>
       <c r="R524" s="2"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
@@ -7559,7 +7631,7 @@
       <c r="Q525" s="2"/>
       <c r="R525" s="2"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H526" s="2"/>
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
@@ -7572,7 +7644,7 @@
       <c r="Q526" s="2"/>
       <c r="R526" s="2"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
@@ -7585,7 +7657,7 @@
       <c r="Q527" s="2"/>
       <c r="R527" s="2"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H528" s="2"/>
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
@@ -7598,7 +7670,7 @@
       <c r="Q528" s="2"/>
       <c r="R528" s="2"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H529" s="2"/>
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
@@ -7611,7 +7683,7 @@
       <c r="Q529" s="2"/>
       <c r="R529" s="2"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
@@ -7624,7 +7696,7 @@
       <c r="Q530" s="2"/>
       <c r="R530" s="2"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
@@ -7637,7 +7709,7 @@
       <c r="Q531" s="2"/>
       <c r="R531" s="2"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
@@ -7650,7 +7722,7 @@
       <c r="Q532" s="2"/>
       <c r="R532" s="2"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
@@ -7663,7 +7735,7 @@
       <c r="Q533" s="2"/>
       <c r="R533" s="2"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
@@ -7676,7 +7748,7 @@
       <c r="Q534" s="2"/>
       <c r="R534" s="2"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
@@ -7689,7 +7761,7 @@
       <c r="Q535" s="2"/>
       <c r="R535" s="2"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
@@ -7702,7 +7774,7 @@
       <c r="Q536" s="2"/>
       <c r="R536" s="2"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
@@ -7715,7 +7787,7 @@
       <c r="Q537" s="2"/>
       <c r="R537" s="2"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
@@ -7728,7 +7800,7 @@
       <c r="Q538" s="2"/>
       <c r="R538" s="2"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H539" s="2"/>
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
@@ -7741,7 +7813,7 @@
       <c r="Q539" s="2"/>
       <c r="R539" s="2"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H540" s="2"/>
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
@@ -7754,7 +7826,7 @@
       <c r="Q540" s="2"/>
       <c r="R540" s="2"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H541" s="2"/>
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
@@ -7767,7 +7839,7 @@
       <c r="Q541" s="2"/>
       <c r="R541" s="2"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H542" s="2"/>
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
@@ -7780,7 +7852,7 @@
       <c r="Q542" s="2"/>
       <c r="R542" s="2"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H543" s="2"/>
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
@@ -7793,7 +7865,7 @@
       <c r="Q543" s="2"/>
       <c r="R543" s="2"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H544" s="2"/>
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
@@ -7806,7 +7878,7 @@
       <c r="Q544" s="2"/>
       <c r="R544" s="2"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H545" s="2"/>
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
@@ -7819,7 +7891,7 @@
       <c r="Q545" s="2"/>
       <c r="R545" s="2"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H546" s="2"/>
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
@@ -7832,7 +7904,7 @@
       <c r="Q546" s="2"/>
       <c r="R546" s="2"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H547" s="2"/>
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
@@ -7845,7 +7917,7 @@
       <c r="Q547" s="2"/>
       <c r="R547" s="2"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H548" s="2"/>
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
@@ -7858,7 +7930,7 @@
       <c r="Q548" s="2"/>
       <c r="R548" s="2"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H549" s="2"/>
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
@@ -7871,7 +7943,7 @@
       <c r="Q549" s="2"/>
       <c r="R549" s="2"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H550" s="2"/>
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
@@ -7884,7 +7956,7 @@
       <c r="Q550" s="2"/>
       <c r="R550" s="2"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
@@ -7897,7 +7969,7 @@
       <c r="Q551" s="2"/>
       <c r="R551" s="2"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
@@ -7910,7 +7982,7 @@
       <c r="Q552" s="2"/>
       <c r="R552" s="2"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
@@ -7923,7 +7995,7 @@
       <c r="Q553" s="2"/>
       <c r="R553" s="2"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H554" s="2"/>
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
@@ -7936,7 +8008,7 @@
       <c r="Q554" s="2"/>
       <c r="R554" s="2"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H555" s="2"/>
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
@@ -7949,7 +8021,7 @@
       <c r="Q555" s="2"/>
       <c r="R555" s="2"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H556" s="2"/>
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
@@ -7962,7 +8034,7 @@
       <c r="Q556" s="2"/>
       <c r="R556" s="2"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H557" s="2"/>
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
@@ -7975,7 +8047,7 @@
       <c r="Q557" s="2"/>
       <c r="R557" s="2"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H558" s="2"/>
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
@@ -7988,7 +8060,7 @@
       <c r="Q558" s="2"/>
       <c r="R558" s="2"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H559" s="2"/>
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
@@ -8001,7 +8073,7 @@
       <c r="Q559" s="2"/>
       <c r="R559" s="2"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H560" s="2"/>
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
@@ -8014,7 +8086,7 @@
       <c r="Q560" s="2"/>
       <c r="R560" s="2"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
@@ -8027,7 +8099,7 @@
       <c r="Q561" s="2"/>
       <c r="R561" s="2"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H562" s="2"/>
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
@@ -8040,7 +8112,7 @@
       <c r="Q562" s="2"/>
       <c r="R562" s="2"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
@@ -8053,7 +8125,7 @@
       <c r="Q563" s="2"/>
       <c r="R563" s="2"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H564" s="2"/>
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
@@ -8066,7 +8138,7 @@
       <c r="Q564" s="2"/>
       <c r="R564" s="2"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H565" s="2"/>
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
@@ -8079,7 +8151,7 @@
       <c r="Q565" s="2"/>
       <c r="R565" s="2"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H566" s="2"/>
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
@@ -8092,7 +8164,7 @@
       <c r="Q566" s="2"/>
       <c r="R566" s="2"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H567" s="2"/>
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
@@ -8105,7 +8177,7 @@
       <c r="Q567" s="2"/>
       <c r="R567" s="2"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H568" s="2"/>
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
@@ -8118,7 +8190,7 @@
       <c r="Q568" s="2"/>
       <c r="R568" s="2"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H569" s="2"/>
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
@@ -8131,7 +8203,7 @@
       <c r="Q569" s="2"/>
       <c r="R569" s="2"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
@@ -8144,7 +8216,7 @@
       <c r="Q570" s="2"/>
       <c r="R570" s="2"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
@@ -8157,7 +8229,7 @@
       <c r="Q571" s="2"/>
       <c r="R571" s="2"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
@@ -8170,7 +8242,7 @@
       <c r="Q572" s="2"/>
       <c r="R572" s="2"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
@@ -8183,7 +8255,7 @@
       <c r="Q573" s="2"/>
       <c r="R573" s="2"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H574" s="2"/>
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
@@ -8196,7 +8268,7 @@
       <c r="Q574" s="2"/>
       <c r="R574" s="2"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H575" s="2"/>
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
@@ -8209,7 +8281,7 @@
       <c r="Q575" s="2"/>
       <c r="R575" s="2"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H576" s="2"/>
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
@@ -8222,7 +8294,7 @@
       <c r="Q576" s="2"/>
       <c r="R576" s="2"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
@@ -8235,7 +8307,7 @@
       <c r="Q577" s="2"/>
       <c r="R577" s="2"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
@@ -8248,7 +8320,7 @@
       <c r="Q578" s="2"/>
       <c r="R578" s="2"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
@@ -8261,7 +8333,7 @@
       <c r="Q579" s="2"/>
       <c r="R579" s="2"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H580" s="2"/>
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
@@ -8274,7 +8346,7 @@
       <c r="Q580" s="2"/>
       <c r="R580" s="2"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H581" s="2"/>
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
@@ -8287,7 +8359,7 @@
       <c r="Q581" s="2"/>
       <c r="R581" s="2"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H582" s="2"/>
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
@@ -8300,7 +8372,7 @@
       <c r="Q582" s="2"/>
       <c r="R582" s="2"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
@@ -8313,7 +8385,7 @@
       <c r="Q583" s="2"/>
       <c r="R583" s="2"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H584" s="2"/>
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
@@ -8326,7 +8398,7 @@
       <c r="Q584" s="2"/>
       <c r="R584" s="2"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
@@ -8339,7 +8411,7 @@
       <c r="Q585" s="2"/>
       <c r="R585" s="2"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H586" s="2"/>
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
@@ -8352,7 +8424,7 @@
       <c r="Q586" s="2"/>
       <c r="R586" s="2"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
@@ -8365,7 +8437,7 @@
       <c r="Q587" s="2"/>
       <c r="R587" s="2"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
@@ -8378,7 +8450,7 @@
       <c r="Q588" s="2"/>
       <c r="R588" s="2"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H589" s="2"/>
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
@@ -8391,7 +8463,7 @@
       <c r="Q589" s="2"/>
       <c r="R589" s="2"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
@@ -8404,7 +8476,7 @@
       <c r="Q590" s="2"/>
       <c r="R590" s="2"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H591" s="2"/>
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
@@ -8417,7 +8489,7 @@
       <c r="Q591" s="2"/>
       <c r="R591" s="2"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H592" s="2"/>
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
@@ -8430,7 +8502,7 @@
       <c r="Q592" s="2"/>
       <c r="R592" s="2"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
@@ -8443,7 +8515,7 @@
       <c r="Q593" s="2"/>
       <c r="R593" s="2"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
@@ -8456,7 +8528,7 @@
       <c r="Q594" s="2"/>
       <c r="R594" s="2"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
@@ -8469,7 +8541,7 @@
       <c r="Q595" s="2"/>
       <c r="R595" s="2"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
@@ -8482,7 +8554,7 @@
       <c r="Q596" s="2"/>
       <c r="R596" s="2"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
@@ -8495,7 +8567,7 @@
       <c r="Q597" s="2"/>
       <c r="R597" s="2"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
@@ -8508,7 +8580,7 @@
       <c r="Q598" s="2"/>
       <c r="R598" s="2"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
@@ -8521,7 +8593,7 @@
       <c r="Q599" s="2"/>
       <c r="R599" s="2"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
@@ -8534,7 +8606,7 @@
       <c r="Q600" s="2"/>
       <c r="R600" s="2"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
@@ -8547,7 +8619,7 @@
       <c r="Q601" s="2"/>
       <c r="R601" s="2"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
@@ -8560,7 +8632,7 @@
       <c r="Q602" s="2"/>
       <c r="R602" s="2"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
@@ -8573,7 +8645,7 @@
       <c r="Q603" s="2"/>
       <c r="R603" s="2"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
@@ -8586,7 +8658,7 @@
       <c r="Q604" s="2"/>
       <c r="R604" s="2"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
@@ -8599,7 +8671,7 @@
       <c r="Q605" s="2"/>
       <c r="R605" s="2"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
@@ -8612,7 +8684,7 @@
       <c r="Q606" s="2"/>
       <c r="R606" s="2"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
@@ -8625,7 +8697,7 @@
       <c r="Q607" s="2"/>
       <c r="R607" s="2"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H608" s="2"/>
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
@@ -8638,7 +8710,7 @@
       <c r="Q608" s="2"/>
       <c r="R608" s="2"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H609" s="2"/>
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
@@ -8651,7 +8723,7 @@
       <c r="Q609" s="2"/>
       <c r="R609" s="2"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H610" s="2"/>
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
@@ -8664,7 +8736,7 @@
       <c r="Q610" s="2"/>
       <c r="R610" s="2"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H611" s="2"/>
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
@@ -8677,7 +8749,7 @@
       <c r="Q611" s="2"/>
       <c r="R611" s="2"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H612" s="2"/>
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
@@ -8690,7 +8762,7 @@
       <c r="Q612" s="2"/>
       <c r="R612" s="2"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H613" s="2"/>
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
@@ -8703,7 +8775,7 @@
       <c r="Q613" s="2"/>
       <c r="R613" s="2"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H614" s="2"/>
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
@@ -8716,7 +8788,7 @@
       <c r="Q614" s="2"/>
       <c r="R614" s="2"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H615" s="2"/>
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
@@ -8729,7 +8801,7 @@
       <c r="Q615" s="2"/>
       <c r="R615" s="2"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H616" s="2"/>
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
@@ -8742,7 +8814,7 @@
       <c r="Q616" s="2"/>
       <c r="R616" s="2"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
@@ -8755,7 +8827,7 @@
       <c r="Q617" s="2"/>
       <c r="R617" s="2"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
@@ -8768,7 +8840,7 @@
       <c r="Q618" s="2"/>
       <c r="R618" s="2"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
@@ -8781,7 +8853,7 @@
       <c r="Q619" s="2"/>
       <c r="R619" s="2"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
@@ -8794,7 +8866,7 @@
       <c r="Q620" s="2"/>
       <c r="R620" s="2"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
@@ -8807,7 +8879,7 @@
       <c r="Q621" s="2"/>
       <c r="R621" s="2"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
@@ -8820,7 +8892,7 @@
       <c r="Q622" s="2"/>
       <c r="R622" s="2"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
@@ -8833,7 +8905,7 @@
       <c r="Q623" s="2"/>
       <c r="R623" s="2"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H624" s="2"/>
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
@@ -8846,7 +8918,7 @@
       <c r="Q624" s="2"/>
       <c r="R624" s="2"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
@@ -8859,7 +8931,7 @@
       <c r="Q625" s="2"/>
       <c r="R625" s="2"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
@@ -8872,7 +8944,7 @@
       <c r="Q626" s="2"/>
       <c r="R626" s="2"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
@@ -8885,7 +8957,7 @@
       <c r="Q627" s="2"/>
       <c r="R627" s="2"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
@@ -8898,7 +8970,7 @@
       <c r="Q628" s="2"/>
       <c r="R628" s="2"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H629" s="2"/>
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
@@ -8911,7 +8983,7 @@
       <c r="Q629" s="2"/>
       <c r="R629" s="2"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
@@ -8924,7 +8996,7 @@
       <c r="Q630" s="2"/>
       <c r="R630" s="2"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
@@ -8937,7 +9009,7 @@
       <c r="Q631" s="2"/>
       <c r="R631" s="2"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
@@ -8950,7 +9022,7 @@
       <c r="Q632" s="2"/>
       <c r="R632" s="2"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H633" s="2"/>
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
@@ -8963,7 +9035,7 @@
       <c r="Q633" s="2"/>
       <c r="R633" s="2"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H634" s="2"/>
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
@@ -8976,7 +9048,7 @@
       <c r="Q634" s="2"/>
       <c r="R634" s="2"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H635" s="2"/>
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
@@ -8989,7 +9061,7 @@
       <c r="Q635" s="2"/>
       <c r="R635" s="2"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H636" s="2"/>
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
@@ -9002,7 +9074,7 @@
       <c r="Q636" s="2"/>
       <c r="R636" s="2"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H637" s="2"/>
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
@@ -9015,7 +9087,7 @@
       <c r="Q637" s="2"/>
       <c r="R637" s="2"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H638" s="2"/>
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
@@ -9028,7 +9100,7 @@
       <c r="Q638" s="2"/>
       <c r="R638" s="2"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H639" s="2"/>
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
@@ -9041,7 +9113,7 @@
       <c r="Q639" s="2"/>
       <c r="R639" s="2"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H640" s="2"/>
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
@@ -9054,7 +9126,7 @@
       <c r="Q640" s="2"/>
       <c r="R640" s="2"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H641" s="2"/>
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
@@ -9067,7 +9139,7 @@
       <c r="Q641" s="2"/>
       <c r="R641" s="2"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H642" s="2"/>
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
@@ -9080,7 +9152,7 @@
       <c r="Q642" s="2"/>
       <c r="R642" s="2"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H643" s="2"/>
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
@@ -9093,7 +9165,7 @@
       <c r="Q643" s="2"/>
       <c r="R643" s="2"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
@@ -9106,7 +9178,7 @@
       <c r="Q644" s="2"/>
       <c r="R644" s="2"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H645" s="2"/>
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
@@ -9119,7 +9191,7 @@
       <c r="Q645" s="2"/>
       <c r="R645" s="2"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H646" s="2"/>
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
@@ -9132,7 +9204,7 @@
       <c r="Q646" s="2"/>
       <c r="R646" s="2"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
@@ -9145,7 +9217,7 @@
       <c r="Q647" s="2"/>
       <c r="R647" s="2"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
@@ -9158,7 +9230,7 @@
       <c r="Q648" s="2"/>
       <c r="R648" s="2"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
@@ -9171,7 +9243,7 @@
       <c r="Q649" s="2"/>
       <c r="R649" s="2"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H650" s="2"/>
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
@@ -9184,7 +9256,7 @@
       <c r="Q650" s="2"/>
       <c r="R650" s="2"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H651" s="2"/>
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
@@ -9197,7 +9269,7 @@
       <c r="Q651" s="2"/>
       <c r="R651" s="2"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
@@ -9210,7 +9282,7 @@
       <c r="Q652" s="2"/>
       <c r="R652" s="2"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
@@ -9223,7 +9295,7 @@
       <c r="Q653" s="2"/>
       <c r="R653" s="2"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H654" s="2"/>
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
@@ -9236,7 +9308,7 @@
       <c r="Q654" s="2"/>
       <c r="R654" s="2"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H655" s="2"/>
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
@@ -9249,7 +9321,7 @@
       <c r="Q655" s="2"/>
       <c r="R655" s="2"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H656" s="2"/>
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
@@ -9262,7 +9334,7 @@
       <c r="Q656" s="2"/>
       <c r="R656" s="2"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H657" s="2"/>
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
@@ -9275,7 +9347,7 @@
       <c r="Q657" s="2"/>
       <c r="R657" s="2"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H658" s="2"/>
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
@@ -9288,7 +9360,7 @@
       <c r="Q658" s="2"/>
       <c r="R658" s="2"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H659" s="2"/>
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
@@ -9301,7 +9373,7 @@
       <c r="Q659" s="2"/>
       <c r="R659" s="2"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H660" s="2"/>
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
@@ -9314,7 +9386,7 @@
       <c r="Q660" s="2"/>
       <c r="R660" s="2"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H661" s="2"/>
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
@@ -9327,7 +9399,7 @@
       <c r="Q661" s="2"/>
       <c r="R661" s="2"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H662" s="2"/>
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
@@ -9340,7 +9412,7 @@
       <c r="Q662" s="2"/>
       <c r="R662" s="2"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H663" s="2"/>
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
@@ -9353,7 +9425,7 @@
       <c r="Q663" s="2"/>
       <c r="R663" s="2"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H664" s="2"/>
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
@@ -9366,7 +9438,7 @@
       <c r="Q664" s="2"/>
       <c r="R664" s="2"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H665" s="2"/>
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
@@ -9379,7 +9451,7 @@
       <c r="Q665" s="2"/>
       <c r="R665" s="2"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H666" s="2"/>
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
@@ -9392,7 +9464,7 @@
       <c r="Q666" s="2"/>
       <c r="R666" s="2"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H667" s="2"/>
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
@@ -9405,7 +9477,7 @@
       <c r="Q667" s="2"/>
       <c r="R667" s="2"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H668" s="2"/>
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
@@ -9418,7 +9490,7 @@
       <c r="Q668" s="2"/>
       <c r="R668" s="2"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H669" s="2"/>
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
@@ -9431,7 +9503,7 @@
       <c r="Q669" s="2"/>
       <c r="R669" s="2"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H670" s="2"/>
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
@@ -9444,7 +9516,7 @@
       <c r="Q670" s="2"/>
       <c r="R670" s="2"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H671" s="2"/>
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
@@ -9457,7 +9529,7 @@
       <c r="Q671" s="2"/>
       <c r="R671" s="2"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H672" s="2"/>
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
@@ -9470,7 +9542,7 @@
       <c r="Q672" s="2"/>
       <c r="R672" s="2"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H673" s="2"/>
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
@@ -9483,7 +9555,7 @@
       <c r="Q673" s="2"/>
       <c r="R673" s="2"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H674" s="2"/>
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
@@ -9496,7 +9568,7 @@
       <c r="Q674" s="2"/>
       <c r="R674" s="2"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H675" s="2"/>
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
@@ -9509,7 +9581,7 @@
       <c r="Q675" s="2"/>
       <c r="R675" s="2"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H676" s="2"/>
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
@@ -9522,7 +9594,7 @@
       <c r="Q676" s="2"/>
       <c r="R676" s="2"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H677" s="2"/>
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
@@ -9535,7 +9607,7 @@
       <c r="Q677" s="2"/>
       <c r="R677" s="2"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H678" s="2"/>
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
@@ -9548,7 +9620,7 @@
       <c r="Q678" s="2"/>
       <c r="R678" s="2"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H679" s="2"/>
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
@@ -9561,7 +9633,7 @@
       <c r="Q679" s="2"/>
       <c r="R679" s="2"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H680" s="2"/>
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
@@ -9574,7 +9646,7 @@
       <c r="Q680" s="2"/>
       <c r="R680" s="2"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H681" s="2"/>
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
@@ -9587,7 +9659,7 @@
       <c r="Q681" s="2"/>
       <c r="R681" s="2"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H682" s="2"/>
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
@@ -9600,7 +9672,7 @@
       <c r="Q682" s="2"/>
       <c r="R682" s="2"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H683" s="2"/>
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
@@ -9613,7 +9685,7 @@
       <c r="Q683" s="2"/>
       <c r="R683" s="2"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H684" s="2"/>
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
@@ -9626,7 +9698,7 @@
       <c r="Q684" s="2"/>
       <c r="R684" s="2"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H685" s="2"/>
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
@@ -9639,7 +9711,7 @@
       <c r="Q685" s="2"/>
       <c r="R685" s="2"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H686" s="2"/>
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
@@ -9652,7 +9724,7 @@
       <c r="Q686" s="2"/>
       <c r="R686" s="2"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H687" s="2"/>
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
@@ -9665,7 +9737,7 @@
       <c r="Q687" s="2"/>
       <c r="R687" s="2"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H688" s="2"/>
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
@@ -9678,7 +9750,7 @@
       <c r="Q688" s="2"/>
       <c r="R688" s="2"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H689" s="2"/>
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
@@ -9691,7 +9763,7 @@
       <c r="Q689" s="2"/>
       <c r="R689" s="2"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H690" s="2"/>
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
@@ -9704,7 +9776,7 @@
       <c r="Q690" s="2"/>
       <c r="R690" s="2"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H691" s="2"/>
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
@@ -9717,7 +9789,7 @@
       <c r="Q691" s="2"/>
       <c r="R691" s="2"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H692" s="2"/>
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
@@ -9730,7 +9802,7 @@
       <c r="Q692" s="2"/>
       <c r="R692" s="2"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H693" s="2"/>
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
@@ -9743,7 +9815,7 @@
       <c r="Q693" s="2"/>
       <c r="R693" s="2"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H694" s="2"/>
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
@@ -9756,7 +9828,7 @@
       <c r="Q694" s="2"/>
       <c r="R694" s="2"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H695" s="2"/>
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
@@ -9769,7 +9841,7 @@
       <c r="Q695" s="2"/>
       <c r="R695" s="2"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H696" s="2"/>
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
@@ -9782,7 +9854,7 @@
       <c r="Q696" s="2"/>
       <c r="R696" s="2"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H697" s="2"/>
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
@@ -9795,7 +9867,7 @@
       <c r="Q697" s="2"/>
       <c r="R697" s="2"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H698" s="2"/>
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
@@ -9808,7 +9880,7 @@
       <c r="Q698" s="2"/>
       <c r="R698" s="2"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H699" s="2"/>
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
@@ -9821,7 +9893,7 @@
       <c r="Q699" s="2"/>
       <c r="R699" s="2"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H700" s="2"/>
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
@@ -9834,7 +9906,7 @@
       <c r="Q700" s="2"/>
       <c r="R700" s="2"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H701" s="2"/>
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
@@ -9847,7 +9919,7 @@
       <c r="Q701" s="2"/>
       <c r="R701" s="2"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H702" s="2"/>
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
@@ -9860,7 +9932,7 @@
       <c r="Q702" s="2"/>
       <c r="R702" s="2"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H703" s="2"/>
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
@@ -9873,7 +9945,7 @@
       <c r="Q703" s="2"/>
       <c r="R703" s="2"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H704" s="2"/>
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
@@ -9886,7 +9958,7 @@
       <c r="Q704" s="2"/>
       <c r="R704" s="2"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H705" s="2"/>
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
@@ -9899,7 +9971,7 @@
       <c r="Q705" s="2"/>
       <c r="R705" s="2"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H706" s="2"/>
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
@@ -9912,7 +9984,7 @@
       <c r="Q706" s="2"/>
       <c r="R706" s="2"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H707" s="2"/>
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
@@ -9925,7 +9997,7 @@
       <c r="Q707" s="2"/>
       <c r="R707" s="2"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H708" s="2"/>
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
@@ -9938,7 +10010,7 @@
       <c r="Q708" s="2"/>
       <c r="R708" s="2"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H709" s="2"/>
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
@@ -9951,7 +10023,7 @@
       <c r="Q709" s="2"/>
       <c r="R709" s="2"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H710" s="2"/>
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
@@ -9964,7 +10036,7 @@
       <c r="Q710" s="2"/>
       <c r="R710" s="2"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H711" s="2"/>
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
@@ -9977,7 +10049,7 @@
       <c r="Q711" s="2"/>
       <c r="R711" s="2"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H712" s="2"/>
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
@@ -9990,7 +10062,7 @@
       <c r="Q712" s="2"/>
       <c r="R712" s="2"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H713" s="2"/>
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
@@ -10003,7 +10075,7 @@
       <c r="Q713" s="2"/>
       <c r="R713" s="2"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H714" s="2"/>
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
@@ -10016,7 +10088,7 @@
       <c r="Q714" s="2"/>
       <c r="R714" s="2"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H715" s="2"/>
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
@@ -10029,7 +10101,7 @@
       <c r="Q715" s="2"/>
       <c r="R715" s="2"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H716" s="2"/>
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
@@ -10042,7 +10114,7 @@
       <c r="Q716" s="2"/>
       <c r="R716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H717" s="2"/>
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
@@ -10055,7 +10127,7 @@
       <c r="Q717" s="2"/>
       <c r="R717" s="2"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H718" s="2"/>
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
@@ -10068,7 +10140,7 @@
       <c r="Q718" s="2"/>
       <c r="R718" s="2"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H719" s="2"/>
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
@@ -10081,7 +10153,7 @@
       <c r="Q719" s="2"/>
       <c r="R719" s="2"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H720" s="2"/>
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
@@ -10094,7 +10166,7 @@
       <c r="Q720" s="2"/>
       <c r="R720" s="2"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H721" s="2"/>
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
@@ -10107,7 +10179,7 @@
       <c r="Q721" s="2"/>
       <c r="R721" s="2"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H722" s="2"/>
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
@@ -10120,7 +10192,7 @@
       <c r="Q722" s="2"/>
       <c r="R722" s="2"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H723" s="2"/>
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
@@ -10133,7 +10205,7 @@
       <c r="Q723" s="2"/>
       <c r="R723" s="2"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H724" s="2"/>
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
@@ -10146,7 +10218,7 @@
       <c r="Q724" s="2"/>
       <c r="R724" s="2"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H725" s="2"/>
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
@@ -10159,7 +10231,7 @@
       <c r="Q725" s="2"/>
       <c r="R725" s="2"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H726" s="2"/>
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
@@ -10172,7 +10244,7 @@
       <c r="Q726" s="2"/>
       <c r="R726" s="2"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H727" s="2"/>
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
@@ -10185,7 +10257,7 @@
       <c r="Q727" s="2"/>
       <c r="R727" s="2"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H728" s="2"/>
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
@@ -10198,7 +10270,7 @@
       <c r="Q728" s="2"/>
       <c r="R728" s="2"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H729" s="2"/>
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
@@ -10211,7 +10283,7 @@
       <c r="Q729" s="2"/>
       <c r="R729" s="2"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H730" s="2"/>
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
@@ -10224,7 +10296,7 @@
       <c r="Q730" s="2"/>
       <c r="R730" s="2"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H731" s="2"/>
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
@@ -10237,7 +10309,7 @@
       <c r="Q731" s="2"/>
       <c r="R731" s="2"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H732" s="2"/>
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
@@ -10250,7 +10322,7 @@
       <c r="Q732" s="2"/>
       <c r="R732" s="2"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H733" s="2"/>
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
@@ -10263,7 +10335,7 @@
       <c r="Q733" s="2"/>
       <c r="R733" s="2"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H734" s="2"/>
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
@@ -10276,7 +10348,7 @@
       <c r="Q734" s="2"/>
       <c r="R734" s="2"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H735" s="2"/>
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
@@ -10289,7 +10361,7 @@
       <c r="Q735" s="2"/>
       <c r="R735" s="2"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H736" s="2"/>
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
@@ -10302,7 +10374,7 @@
       <c r="Q736" s="2"/>
       <c r="R736" s="2"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H737" s="2"/>
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
@@ -10315,7 +10387,7 @@
       <c r="Q737" s="2"/>
       <c r="R737" s="2"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H738" s="2"/>
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
@@ -10328,7 +10400,7 @@
       <c r="Q738" s="2"/>
       <c r="R738" s="2"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H739" s="2"/>
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
@@ -10341,7 +10413,7 @@
       <c r="Q739" s="2"/>
       <c r="R739" s="2"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H740" s="2"/>
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
@@ -10354,7 +10426,7 @@
       <c r="Q740" s="2"/>
       <c r="R740" s="2"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H741" s="2"/>
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
@@ -10367,7 +10439,7 @@
       <c r="Q741" s="2"/>
       <c r="R741" s="2"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H742" s="2"/>
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
@@ -10380,7 +10452,7 @@
       <c r="Q742" s="2"/>
       <c r="R742" s="2"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H743" s="2"/>
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
@@ -10393,7 +10465,7 @@
       <c r="Q743" s="2"/>
       <c r="R743" s="2"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H744" s="2"/>
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
@@ -10406,7 +10478,7 @@
       <c r="Q744" s="2"/>
       <c r="R744" s="2"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H745" s="2"/>
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
@@ -10419,7 +10491,7 @@
       <c r="Q745" s="2"/>
       <c r="R745" s="2"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H746" s="2"/>
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
@@ -10432,7 +10504,7 @@
       <c r="Q746" s="2"/>
       <c r="R746" s="2"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H747" s="2"/>
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
@@ -10445,7 +10517,7 @@
       <c r="Q747" s="2"/>
       <c r="R747" s="2"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H748" s="2"/>
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
@@ -10458,7 +10530,7 @@
       <c r="Q748" s="2"/>
       <c r="R748" s="2"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H749" s="2"/>
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
@@ -10471,7 +10543,7 @@
       <c r="Q749" s="2"/>
       <c r="R749" s="2"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H750" s="2"/>
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
@@ -10484,7 +10556,7 @@
       <c r="Q750" s="2"/>
       <c r="R750" s="2"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H751" s="2"/>
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
@@ -10497,7 +10569,7 @@
       <c r="Q751" s="2"/>
       <c r="R751" s="2"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H752" s="2"/>
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
@@ -10510,7 +10582,7 @@
       <c r="Q752" s="2"/>
       <c r="R752" s="2"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H753" s="2"/>
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
@@ -10523,7 +10595,7 @@
       <c r="Q753" s="2"/>
       <c r="R753" s="2"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H754" s="2"/>
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
@@ -10536,7 +10608,7 @@
       <c r="Q754" s="2"/>
       <c r="R754" s="2"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H755" s="2"/>
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
@@ -10549,7 +10621,7 @@
       <c r="Q755" s="2"/>
       <c r="R755" s="2"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H756" s="2"/>
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
@@ -10562,7 +10634,7 @@
       <c r="Q756" s="2"/>
       <c r="R756" s="2"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H757" s="2"/>
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
@@ -10575,7 +10647,7 @@
       <c r="Q757" s="2"/>
       <c r="R757" s="2"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H758" s="2"/>
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
@@ -10588,7 +10660,7 @@
       <c r="Q758" s="2"/>
       <c r="R758" s="2"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H759" s="2"/>
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
@@ -10601,7 +10673,7 @@
       <c r="Q759" s="2"/>
       <c r="R759" s="2"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H760" s="2"/>
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
@@ -10614,7 +10686,7 @@
       <c r="Q760" s="2"/>
       <c r="R760" s="2"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H761" s="2"/>
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
@@ -10627,7 +10699,7 @@
       <c r="Q761" s="2"/>
       <c r="R761" s="2"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H762" s="2"/>
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
@@ -10640,7 +10712,7 @@
       <c r="Q762" s="2"/>
       <c r="R762" s="2"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H763" s="2"/>
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
@@ -10653,7 +10725,7 @@
       <c r="Q763" s="2"/>
       <c r="R763" s="2"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H764" s="2"/>
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
@@ -10666,7 +10738,7 @@
       <c r="Q764" s="2"/>
       <c r="R764" s="2"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H765" s="2"/>
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
@@ -10679,7 +10751,7 @@
       <c r="Q765" s="2"/>
       <c r="R765" s="2"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H766" s="2"/>
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
@@ -10692,7 +10764,7 @@
       <c r="Q766" s="2"/>
       <c r="R766" s="2"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H767" s="2"/>
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
@@ -10705,7 +10777,7 @@
       <c r="Q767" s="2"/>
       <c r="R767" s="2"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H768" s="2"/>
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
@@ -10718,7 +10790,7 @@
       <c r="Q768" s="2"/>
       <c r="R768" s="2"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H769" s="2"/>
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
@@ -10731,7 +10803,7 @@
       <c r="Q769" s="2"/>
       <c r="R769" s="2"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H770" s="2"/>
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
@@ -10744,7 +10816,7 @@
       <c r="Q770" s="2"/>
       <c r="R770" s="2"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H771" s="2"/>
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
@@ -10757,7 +10829,7 @@
       <c r="Q771" s="2"/>
       <c r="R771" s="2"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H772" s="2"/>
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
@@ -10770,7 +10842,7 @@
       <c r="Q772" s="2"/>
       <c r="R772" s="2"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H773" s="2"/>
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
@@ -10783,7 +10855,7 @@
       <c r="Q773" s="2"/>
       <c r="R773" s="2"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H774" s="2"/>
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
@@ -10796,7 +10868,7 @@
       <c r="Q774" s="2"/>
       <c r="R774" s="2"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H775" s="2"/>
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
@@ -10809,7 +10881,7 @@
       <c r="Q775" s="2"/>
       <c r="R775" s="2"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H776" s="2"/>
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
@@ -10822,7 +10894,7 @@
       <c r="Q776" s="2"/>
       <c r="R776" s="2"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H777" s="2"/>
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
@@ -10835,7 +10907,7 @@
       <c r="Q777" s="2"/>
       <c r="R777" s="2"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H778" s="2"/>
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
@@ -10848,7 +10920,7 @@
       <c r="Q778" s="2"/>
       <c r="R778" s="2"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H779" s="2"/>
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
@@ -10861,7 +10933,7 @@
       <c r="Q779" s="2"/>
       <c r="R779" s="2"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H780" s="2"/>
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
@@ -10874,7 +10946,7 @@
       <c r="Q780" s="2"/>
       <c r="R780" s="2"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H781" s="2"/>
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
@@ -10887,7 +10959,7 @@
       <c r="Q781" s="2"/>
       <c r="R781" s="2"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H782" s="2"/>
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
@@ -10900,7 +10972,7 @@
       <c r="Q782" s="2"/>
       <c r="R782" s="2"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H783" s="2"/>
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
@@ -10913,7 +10985,7 @@
       <c r="Q783" s="2"/>
       <c r="R783" s="2"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H784" s="2"/>
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
@@ -10926,7 +10998,7 @@
       <c r="Q784" s="2"/>
       <c r="R784" s="2"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H785" s="2"/>
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
@@ -10939,7 +11011,7 @@
       <c r="Q785" s="2"/>
       <c r="R785" s="2"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H786" s="2"/>
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
@@ -10952,7 +11024,7 @@
       <c r="Q786" s="2"/>
       <c r="R786" s="2"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H787" s="2"/>
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
@@ -10965,7 +11037,7 @@
       <c r="Q787" s="2"/>
       <c r="R787" s="2"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H788" s="2"/>
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
@@ -10978,7 +11050,7 @@
       <c r="Q788" s="2"/>
       <c r="R788" s="2"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H789" s="2"/>
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
@@ -10991,7 +11063,7 @@
       <c r="Q789" s="2"/>
       <c r="R789" s="2"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H790" s="2"/>
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
@@ -11004,7 +11076,7 @@
       <c r="Q790" s="2"/>
       <c r="R790" s="2"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H791" s="2"/>
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
@@ -11017,7 +11089,7 @@
       <c r="Q791" s="2"/>
       <c r="R791" s="2"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H792" s="2"/>
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
@@ -11030,7 +11102,7 @@
       <c r="Q792" s="2"/>
       <c r="R792" s="2"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H793" s="2"/>
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
@@ -11043,7 +11115,7 @@
       <c r="Q793" s="2"/>
       <c r="R793" s="2"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H794" s="2"/>
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
@@ -11056,7 +11128,7 @@
       <c r="Q794" s="2"/>
       <c r="R794" s="2"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H795" s="2"/>
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
@@ -11069,7 +11141,7 @@
       <c r="Q795" s="2"/>
       <c r="R795" s="2"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H796" s="2"/>
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
@@ -11082,7 +11154,7 @@
       <c r="Q796" s="2"/>
       <c r="R796" s="2"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H797" s="2"/>
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
@@ -11095,7 +11167,7 @@
       <c r="Q797" s="2"/>
       <c r="R797" s="2"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H798" s="2"/>
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
@@ -11108,7 +11180,7 @@
       <c r="Q798" s="2"/>
       <c r="R798" s="2"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H799" s="2"/>
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
@@ -11121,7 +11193,7 @@
       <c r="Q799" s="2"/>
       <c r="R799" s="2"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H800" s="2"/>
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
@@ -11134,7 +11206,7 @@
       <c r="Q800" s="2"/>
       <c r="R800" s="2"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H801" s="2"/>
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
@@ -11147,7 +11219,7 @@
       <c r="Q801" s="2"/>
       <c r="R801" s="2"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H802" s="2"/>
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
@@ -11160,7 +11232,7 @@
       <c r="Q802" s="2"/>
       <c r="R802" s="2"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H803" s="2"/>
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
@@ -11173,7 +11245,7 @@
       <c r="Q803" s="2"/>
       <c r="R803" s="2"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H804" s="2"/>
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
@@ -11186,7 +11258,7 @@
       <c r="Q804" s="2"/>
       <c r="R804" s="2"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H805" s="2"/>
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
@@ -11199,7 +11271,7 @@
       <c r="Q805" s="2"/>
       <c r="R805" s="2"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H806" s="2"/>
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
@@ -11212,7 +11284,7 @@
       <c r="Q806" s="2"/>
       <c r="R806" s="2"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H807" s="2"/>
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
@@ -11225,7 +11297,7 @@
       <c r="Q807" s="2"/>
       <c r="R807" s="2"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H808" s="2"/>
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
@@ -11238,7 +11310,7 @@
       <c r="Q808" s="2"/>
       <c r="R808" s="2"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H809" s="2"/>
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
@@ -11251,7 +11323,7 @@
       <c r="Q809" s="2"/>
       <c r="R809" s="2"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H810" s="2"/>
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
@@ -11264,7 +11336,7 @@
       <c r="Q810" s="2"/>
       <c r="R810" s="2"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H811" s="2"/>
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
@@ -11277,7 +11349,7 @@
       <c r="Q811" s="2"/>
       <c r="R811" s="2"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H812" s="2"/>
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
@@ -11290,7 +11362,7 @@
       <c r="Q812" s="2"/>
       <c r="R812" s="2"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H813" s="2"/>
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
@@ -11303,7 +11375,7 @@
       <c r="Q813" s="2"/>
       <c r="R813" s="2"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H814" s="2"/>
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
@@ -11316,7 +11388,7 @@
       <c r="Q814" s="2"/>
       <c r="R814" s="2"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H815" s="2"/>
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
@@ -11329,7 +11401,7 @@
       <c r="Q815" s="2"/>
       <c r="R815" s="2"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H816" s="2"/>
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
@@ -11342,7 +11414,7 @@
       <c r="Q816" s="2"/>
       <c r="R816" s="2"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H817" s="2"/>
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
@@ -11355,7 +11427,7 @@
       <c r="Q817" s="2"/>
       <c r="R817" s="2"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H818" s="2"/>
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
@@ -11368,7 +11440,7 @@
       <c r="Q818" s="2"/>
       <c r="R818" s="2"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H819" s="2"/>
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
@@ -11381,7 +11453,7 @@
       <c r="Q819" s="2"/>
       <c r="R819" s="2"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H820" s="2"/>
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
@@ -11394,7 +11466,7 @@
       <c r="Q820" s="2"/>
       <c r="R820" s="2"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H821" s="2"/>
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
@@ -11407,7 +11479,7 @@
       <c r="Q821" s="2"/>
       <c r="R821" s="2"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H822" s="2"/>
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
@@ -11420,7 +11492,7 @@
       <c r="Q822" s="2"/>
       <c r="R822" s="2"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H823" s="2"/>
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
@@ -11433,7 +11505,7 @@
       <c r="Q823" s="2"/>
       <c r="R823" s="2"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H824" s="2"/>
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
@@ -11446,7 +11518,7 @@
       <c r="Q824" s="2"/>
       <c r="R824" s="2"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H825" s="2"/>
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
@@ -11459,7 +11531,7 @@
       <c r="Q825" s="2"/>
       <c r="R825" s="2"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H826" s="2"/>
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
@@ -11472,7 +11544,7 @@
       <c r="Q826" s="2"/>
       <c r="R826" s="2"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H827" s="2"/>
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
@@ -11485,7 +11557,7 @@
       <c r="Q827" s="2"/>
       <c r="R827" s="2"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H828" s="2"/>
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
@@ -11498,7 +11570,7 @@
       <c r="Q828" s="2"/>
       <c r="R828" s="2"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H829" s="2"/>
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
@@ -11511,7 +11583,7 @@
       <c r="Q829" s="2"/>
       <c r="R829" s="2"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H830" s="2"/>
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
@@ -11524,7 +11596,7 @@
       <c r="Q830" s="2"/>
       <c r="R830" s="2"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H831" s="2"/>
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
@@ -11537,7 +11609,7 @@
       <c r="Q831" s="2"/>
       <c r="R831" s="2"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H832" s="2"/>
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
@@ -11550,7 +11622,7 @@
       <c r="Q832" s="2"/>
       <c r="R832" s="2"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H833" s="2"/>
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
@@ -11563,7 +11635,7 @@
       <c r="Q833" s="2"/>
       <c r="R833" s="2"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H834" s="2"/>
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
@@ -11576,7 +11648,7 @@
       <c r="Q834" s="2"/>
       <c r="R834" s="2"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H835" s="2"/>
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
@@ -11589,7 +11661,7 @@
       <c r="Q835" s="2"/>
       <c r="R835" s="2"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H836" s="2"/>
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
@@ -11602,7 +11674,7 @@
       <c r="Q836" s="2"/>
       <c r="R836" s="2"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H837" s="2"/>
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
@@ -11615,7 +11687,7 @@
       <c r="Q837" s="2"/>
       <c r="R837" s="2"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H838" s="2"/>
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
@@ -11628,7 +11700,7 @@
       <c r="Q838" s="2"/>
       <c r="R838" s="2"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H839" s="2"/>
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
@@ -11641,7 +11713,7 @@
       <c r="Q839" s="2"/>
       <c r="R839" s="2"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H840" s="2"/>
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
@@ -11654,7 +11726,7 @@
       <c r="Q840" s="2"/>
       <c r="R840" s="2"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H841" s="2"/>
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
@@ -11667,7 +11739,7 @@
       <c r="Q841" s="2"/>
       <c r="R841" s="2"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H842" s="2"/>
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
@@ -11680,7 +11752,7 @@
       <c r="Q842" s="2"/>
       <c r="R842" s="2"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H843" s="2"/>
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
@@ -11693,7 +11765,7 @@
       <c r="Q843" s="2"/>
       <c r="R843" s="2"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H844" s="2"/>
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
@@ -11706,7 +11778,7 @@
       <c r="Q844" s="2"/>
       <c r="R844" s="2"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H845" s="2"/>
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
@@ -11719,7 +11791,7 @@
       <c r="Q845" s="2"/>
       <c r="R845" s="2"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H846" s="2"/>
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
@@ -11732,7 +11804,7 @@
       <c r="Q846" s="2"/>
       <c r="R846" s="2"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H847" s="2"/>
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
@@ -11745,7 +11817,7 @@
       <c r="Q847" s="2"/>
       <c r="R847" s="2"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H848" s="2"/>
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
@@ -11758,7 +11830,7 @@
       <c r="Q848" s="2"/>
       <c r="R848" s="2"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H849" s="2"/>
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
@@ -11771,7 +11843,7 @@
       <c r="Q849" s="2"/>
       <c r="R849" s="2"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H850" s="2"/>
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
@@ -11784,7 +11856,7 @@
       <c r="Q850" s="2"/>
       <c r="R850" s="2"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H851" s="2"/>
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
@@ -11797,7 +11869,7 @@
       <c r="Q851" s="2"/>
       <c r="R851" s="2"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H852" s="2"/>
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
@@ -11810,7 +11882,7 @@
       <c r="Q852" s="2"/>
       <c r="R852" s="2"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H853" s="2"/>
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
@@ -11823,7 +11895,7 @@
       <c r="Q853" s="2"/>
       <c r="R853" s="2"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H854" s="2"/>
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
@@ -11836,7 +11908,7 @@
       <c r="Q854" s="2"/>
       <c r="R854" s="2"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H855" s="2"/>
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
@@ -11849,7 +11921,7 @@
       <c r="Q855" s="2"/>
       <c r="R855" s="2"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H856" s="2"/>
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
@@ -11862,7 +11934,7 @@
       <c r="Q856" s="2"/>
       <c r="R856" s="2"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H857" s="2"/>
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
@@ -11875,7 +11947,7 @@
       <c r="Q857" s="2"/>
       <c r="R857" s="2"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H858" s="2"/>
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
@@ -11888,7 +11960,7 @@
       <c r="Q858" s="2"/>
       <c r="R858" s="2"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H859" s="2"/>
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
@@ -11901,7 +11973,7 @@
       <c r="Q859" s="2"/>
       <c r="R859" s="2"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H860" s="2"/>
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
@@ -11914,7 +11986,7 @@
       <c r="Q860" s="2"/>
       <c r="R860" s="2"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H861" s="2"/>
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
@@ -11927,7 +11999,7 @@
       <c r="Q861" s="2"/>
       <c r="R861" s="2"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H862" s="2"/>
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
@@ -11940,7 +12012,7 @@
       <c r="Q862" s="2"/>
       <c r="R862" s="2"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H863" s="2"/>
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
@@ -11953,7 +12025,7 @@
       <c r="Q863" s="2"/>
       <c r="R863" s="2"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H864" s="2"/>
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
@@ -11966,7 +12038,7 @@
       <c r="Q864" s="2"/>
       <c r="R864" s="2"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H865" s="2"/>
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
@@ -11979,7 +12051,7 @@
       <c r="Q865" s="2"/>
       <c r="R865" s="2"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H866" s="2"/>
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
@@ -11992,7 +12064,7 @@
       <c r="Q866" s="2"/>
       <c r="R866" s="2"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H867" s="2"/>
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
@@ -12005,7 +12077,7 @@
       <c r="Q867" s="2"/>
       <c r="R867" s="2"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H868" s="2"/>
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
@@ -12018,7 +12090,7 @@
       <c r="Q868" s="2"/>
       <c r="R868" s="2"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H869" s="2"/>
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
@@ -12031,7 +12103,7 @@
       <c r="Q869" s="2"/>
       <c r="R869" s="2"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H870" s="2"/>
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
@@ -12044,7 +12116,7 @@
       <c r="Q870" s="2"/>
       <c r="R870" s="2"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H871" s="2"/>
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
@@ -12057,7 +12129,7 @@
       <c r="Q871" s="2"/>
       <c r="R871" s="2"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H872" s="2"/>
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
@@ -12070,7 +12142,7 @@
       <c r="Q872" s="2"/>
       <c r="R872" s="2"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H873" s="2"/>
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
@@ -12083,7 +12155,7 @@
       <c r="Q873" s="2"/>
       <c r="R873" s="2"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H874" s="2"/>
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
@@ -12096,7 +12168,7 @@
       <c r="Q874" s="2"/>
       <c r="R874" s="2"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H875" s="2"/>
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
@@ -12109,7 +12181,7 @@
       <c r="Q875" s="2"/>
       <c r="R875" s="2"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H876" s="2"/>
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
@@ -12122,7 +12194,7 @@
       <c r="Q876" s="2"/>
       <c r="R876" s="2"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H877" s="2"/>
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
@@ -12135,7 +12207,7 @@
       <c r="Q877" s="2"/>
       <c r="R877" s="2"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H878" s="2"/>
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
@@ -12148,7 +12220,7 @@
       <c r="Q878" s="2"/>
       <c r="R878" s="2"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H879" s="2"/>
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
@@ -12161,7 +12233,7 @@
       <c r="Q879" s="2"/>
       <c r="R879" s="2"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H880" s="2"/>
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
@@ -12174,7 +12246,7 @@
       <c r="Q880" s="2"/>
       <c r="R880" s="2"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H881" s="2"/>
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
@@ -12187,7 +12259,7 @@
       <c r="Q881" s="2"/>
       <c r="R881" s="2"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H882" s="2"/>
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
@@ -12200,7 +12272,7 @@
       <c r="Q882" s="2"/>
       <c r="R882" s="2"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H883" s="2"/>
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
@@ -12213,7 +12285,7 @@
       <c r="Q883" s="2"/>
       <c r="R883" s="2"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H884" s="2"/>
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
@@ -12226,7 +12298,7 @@
       <c r="Q884" s="2"/>
       <c r="R884" s="2"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H885" s="2"/>
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
@@ -12239,7 +12311,7 @@
       <c r="Q885" s="2"/>
       <c r="R885" s="2"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H886" s="2"/>
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
@@ -12252,7 +12324,7 @@
       <c r="Q886" s="2"/>
       <c r="R886" s="2"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H887" s="2"/>
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
@@ -12265,7 +12337,7 @@
       <c r="Q887" s="2"/>
       <c r="R887" s="2"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H888" s="2"/>
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
@@ -12278,7 +12350,7 @@
       <c r="Q888" s="2"/>
       <c r="R888" s="2"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H889" s="2"/>
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
@@ -12291,7 +12363,7 @@
       <c r="Q889" s="2"/>
       <c r="R889" s="2"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H890" s="2"/>
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
@@ -12304,7 +12376,7 @@
       <c r="Q890" s="2"/>
       <c r="R890" s="2"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H891" s="2"/>
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
@@ -12317,7 +12389,7 @@
       <c r="Q891" s="2"/>
       <c r="R891" s="2"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H892" s="2"/>
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
@@ -12330,7 +12402,7 @@
       <c r="Q892" s="2"/>
       <c r="R892" s="2"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H893" s="2"/>
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
@@ -12343,7 +12415,7 @@
       <c r="Q893" s="2"/>
       <c r="R893" s="2"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H894" s="2"/>
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
@@ -12356,7 +12428,7 @@
       <c r="Q894" s="2"/>
       <c r="R894" s="2"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H895" s="2"/>
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
@@ -12369,7 +12441,7 @@
       <c r="Q895" s="2"/>
       <c r="R895" s="2"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H896" s="2"/>
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
@@ -12382,7 +12454,7 @@
       <c r="Q896" s="2"/>
       <c r="R896" s="2"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H897" s="2"/>
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
@@ -12395,7 +12467,7 @@
       <c r="Q897" s="2"/>
       <c r="R897" s="2"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H898" s="2"/>
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
@@ -12408,7 +12480,7 @@
       <c r="Q898" s="2"/>
       <c r="R898" s="2"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H899" s="2"/>
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
@@ -12421,7 +12493,7 @@
       <c r="Q899" s="2"/>
       <c r="R899" s="2"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H900" s="2"/>
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
@@ -12434,7 +12506,7 @@
       <c r="Q900" s="2"/>
       <c r="R900" s="2"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H901" s="2"/>
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
@@ -12447,7 +12519,7 @@
       <c r="Q901" s="2"/>
       <c r="R901" s="2"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H902" s="2"/>
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
@@ -12460,7 +12532,7 @@
       <c r="Q902" s="2"/>
       <c r="R902" s="2"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H903" s="2"/>
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
@@ -12473,7 +12545,7 @@
       <c r="Q903" s="2"/>
       <c r="R903" s="2"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H904" s="2"/>
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
@@ -12486,7 +12558,7 @@
       <c r="Q904" s="2"/>
       <c r="R904" s="2"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H905" s="2"/>
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
@@ -12499,7 +12571,7 @@
       <c r="Q905" s="2"/>
       <c r="R905" s="2"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H906" s="2"/>
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
@@ -12512,7 +12584,7 @@
       <c r="Q906" s="2"/>
       <c r="R906" s="2"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H907" s="2"/>
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
@@ -12525,7 +12597,7 @@
       <c r="Q907" s="2"/>
       <c r="R907" s="2"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H908" s="2"/>
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
@@ -12538,7 +12610,7 @@
       <c r="Q908" s="2"/>
       <c r="R908" s="2"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H909" s="2"/>
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
@@ -12551,7 +12623,7 @@
       <c r="Q909" s="2"/>
       <c r="R909" s="2"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H910" s="2"/>
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
@@ -12564,7 +12636,7 @@
       <c r="Q910" s="2"/>
       <c r="R910" s="2"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H911" s="2"/>
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
@@ -12577,7 +12649,7 @@
       <c r="Q911" s="2"/>
       <c r="R911" s="2"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H912" s="2"/>
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
@@ -12590,7 +12662,7 @@
       <c r="Q912" s="2"/>
       <c r="R912" s="2"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H913" s="2"/>
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
@@ -12603,7 +12675,7 @@
       <c r="Q913" s="2"/>
       <c r="R913" s="2"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H914" s="2"/>
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
@@ -12616,7 +12688,7 @@
       <c r="Q914" s="2"/>
       <c r="R914" s="2"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H915" s="2"/>
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
@@ -12629,7 +12701,7 @@
       <c r="Q915" s="2"/>
       <c r="R915" s="2"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H916" s="2"/>
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
@@ -12642,7 +12714,7 @@
       <c r="Q916" s="2"/>
       <c r="R916" s="2"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H917" s="2"/>
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
@@ -12655,7 +12727,7 @@
       <c r="Q917" s="2"/>
       <c r="R917" s="2"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H918" s="2"/>
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
@@ -12668,7 +12740,7 @@
       <c r="Q918" s="2"/>
       <c r="R918" s="2"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H919" s="2"/>
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
@@ -12681,7 +12753,7 @@
       <c r="Q919" s="2"/>
       <c r="R919" s="2"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H920" s="2"/>
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
@@ -12694,7 +12766,7 @@
       <c r="Q920" s="2"/>
       <c r="R920" s="2"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H921" s="2"/>
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
@@ -12707,7 +12779,7 @@
       <c r="Q921" s="2"/>
       <c r="R921" s="2"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H922" s="2"/>
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
@@ -12720,7 +12792,7 @@
       <c r="Q922" s="2"/>
       <c r="R922" s="2"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H923" s="2"/>
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
@@ -12733,7 +12805,7 @@
       <c r="Q923" s="2"/>
       <c r="R923" s="2"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H924" s="2"/>
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
@@ -12746,7 +12818,7 @@
       <c r="Q924" s="2"/>
       <c r="R924" s="2"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H925" s="2"/>
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
@@ -12759,7 +12831,7 @@
       <c r="Q925" s="2"/>
       <c r="R925" s="2"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H926" s="2"/>
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
@@ -12772,7 +12844,7 @@
       <c r="Q926" s="2"/>
       <c r="R926" s="2"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H927" s="2"/>
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
@@ -12785,7 +12857,7 @@
       <c r="Q927" s="2"/>
       <c r="R927" s="2"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H928" s="2"/>
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
@@ -12798,7 +12870,7 @@
       <c r="Q928" s="2"/>
       <c r="R928" s="2"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H929" s="2"/>
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
@@ -12811,7 +12883,7 @@
       <c r="Q929" s="2"/>
       <c r="R929" s="2"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H930" s="2"/>
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
@@ -12824,7 +12896,7 @@
       <c r="Q930" s="2"/>
       <c r="R930" s="2"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H931" s="2"/>
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
@@ -12837,7 +12909,7 @@
       <c r="Q931" s="2"/>
       <c r="R931" s="2"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H932" s="2"/>
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
@@ -12850,7 +12922,7 @@
       <c r="Q932" s="2"/>
       <c r="R932" s="2"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H933" s="2"/>
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
@@ -12863,7 +12935,7 @@
       <c r="Q933" s="2"/>
       <c r="R933" s="2"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H934" s="2"/>
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
@@ -12876,7 +12948,7 @@
       <c r="Q934" s="2"/>
       <c r="R934" s="2"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H935" s="2"/>
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
@@ -12889,7 +12961,7 @@
       <c r="Q935" s="2"/>
       <c r="R935" s="2"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H936" s="2"/>
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
@@ -12902,7 +12974,7 @@
       <c r="Q936" s="2"/>
       <c r="R936" s="2"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H937" s="2"/>
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
@@ -12915,7 +12987,7 @@
       <c r="Q937" s="2"/>
       <c r="R937" s="2"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H938" s="2"/>
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
@@ -12928,7 +13000,7 @@
       <c r="Q938" s="2"/>
       <c r="R938" s="2"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H939" s="2"/>
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
@@ -12941,7 +13013,7 @@
       <c r="Q939" s="2"/>
       <c r="R939" s="2"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H940" s="2"/>
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
@@ -12954,7 +13026,7 @@
       <c r="Q940" s="2"/>
       <c r="R940" s="2"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H941" s="2"/>
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
@@ -12967,7 +13039,7 @@
       <c r="Q941" s="2"/>
       <c r="R941" s="2"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H942" s="2"/>
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
@@ -12980,7 +13052,7 @@
       <c r="Q942" s="2"/>
       <c r="R942" s="2"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H943" s="2"/>
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
@@ -12993,7 +13065,7 @@
       <c r="Q943" s="2"/>
       <c r="R943" s="2"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H944" s="2"/>
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
@@ -13006,7 +13078,7 @@
       <c r="Q944" s="2"/>
       <c r="R944" s="2"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H945" s="2"/>
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
@@ -13019,7 +13091,7 @@
       <c r="Q945" s="2"/>
       <c r="R945" s="2"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H946" s="2"/>
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
@@ -13032,7 +13104,7 @@
       <c r="Q946" s="2"/>
       <c r="R946" s="2"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H947" s="2"/>
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
@@ -13045,7 +13117,7 @@
       <c r="Q947" s="2"/>
       <c r="R947" s="2"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H948" s="2"/>
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
@@ -13058,7 +13130,7 @@
       <c r="Q948" s="2"/>
       <c r="R948" s="2"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H949" s="2"/>
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
@@ -13071,7 +13143,7 @@
       <c r="Q949" s="2"/>
       <c r="R949" s="2"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H950" s="2"/>
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
@@ -13084,7 +13156,7 @@
       <c r="Q950" s="2"/>
       <c r="R950" s="2"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H951" s="2"/>
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
@@ -13097,7 +13169,7 @@
       <c r="Q951" s="2"/>
       <c r="R951" s="2"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H952" s="2"/>
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
@@ -13110,7 +13182,7 @@
       <c r="Q952" s="2"/>
       <c r="R952" s="2"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H953" s="2"/>
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
@@ -13123,7 +13195,7 @@
       <c r="Q953" s="2"/>
       <c r="R953" s="2"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H954" s="2"/>
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
@@ -13136,7 +13208,7 @@
       <c r="Q954" s="2"/>
       <c r="R954" s="2"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H955" s="2"/>
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
@@ -13149,7 +13221,7 @@
       <c r="Q955" s="2"/>
       <c r="R955" s="2"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H956" s="2"/>
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
@@ -13162,7 +13234,7 @@
       <c r="Q956" s="2"/>
       <c r="R956" s="2"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H957" s="2"/>
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
@@ -13175,7 +13247,7 @@
       <c r="Q957" s="2"/>
       <c r="R957" s="2"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H958" s="2"/>
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
@@ -13188,7 +13260,7 @@
       <c r="Q958" s="2"/>
       <c r="R958" s="2"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H959" s="2"/>
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
@@ -13201,7 +13273,7 @@
       <c r="Q959" s="2"/>
       <c r="R959" s="2"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H960" s="2"/>
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
@@ -13214,7 +13286,7 @@
       <c r="Q960" s="2"/>
       <c r="R960" s="2"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H961" s="2"/>
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
@@ -13227,7 +13299,7 @@
       <c r="Q961" s="2"/>
       <c r="R961" s="2"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H962" s="2"/>
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
@@ -13240,7 +13312,7 @@
       <c r="Q962" s="2"/>
       <c r="R962" s="2"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H963" s="2"/>
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
@@ -13253,7 +13325,7 @@
       <c r="Q963" s="2"/>
       <c r="R963" s="2"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H964" s="2"/>
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
@@ -13266,7 +13338,7 @@
       <c r="Q964" s="2"/>
       <c r="R964" s="2"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H965" s="2"/>
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
@@ -13279,7 +13351,7 @@
       <c r="Q965" s="2"/>
       <c r="R965" s="2"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H966" s="2"/>
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
@@ -13292,7 +13364,7 @@
       <c r="Q966" s="2"/>
       <c r="R966" s="2"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H967" s="2"/>
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
@@ -13305,7 +13377,7 @@
       <c r="Q967" s="2"/>
       <c r="R967" s="2"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H968" s="2"/>
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
@@ -13318,7 +13390,7 @@
       <c r="Q968" s="2"/>
       <c r="R968" s="2"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H969" s="2"/>
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
@@ -13331,7 +13403,7 @@
       <c r="Q969" s="2"/>
       <c r="R969" s="2"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H970" s="2"/>
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
@@ -13344,7 +13416,7 @@
       <c r="Q970" s="2"/>
       <c r="R970" s="2"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H971" s="2"/>
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
@@ -13357,7 +13429,7 @@
       <c r="Q971" s="2"/>
       <c r="R971" s="2"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H972" s="2"/>
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
@@ -13370,7 +13442,7 @@
       <c r="Q972" s="2"/>
       <c r="R972" s="2"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H973" s="2"/>
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
@@ -13383,7 +13455,7 @@
       <c r="Q973" s="2"/>
       <c r="R973" s="2"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H974" s="2"/>
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
@@ -13396,7 +13468,7 @@
       <c r="Q974" s="2"/>
       <c r="R974" s="2"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H975" s="2"/>
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
@@ -13409,7 +13481,7 @@
       <c r="Q975" s="2"/>
       <c r="R975" s="2"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H976" s="2"/>
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
@@ -13422,7 +13494,7 @@
       <c r="Q976" s="2"/>
       <c r="R976" s="2"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H977" s="2"/>
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
@@ -13435,7 +13507,7 @@
       <c r="Q977" s="2"/>
       <c r="R977" s="2"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H978" s="2"/>
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
@@ -13448,7 +13520,7 @@
       <c r="Q978" s="2"/>
       <c r="R978" s="2"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H979" s="2"/>
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
@@ -13461,7 +13533,7 @@
       <c r="Q979" s="2"/>
       <c r="R979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H980" s="2"/>
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
@@ -13474,7 +13546,7 @@
       <c r="Q980" s="2"/>
       <c r="R980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H981" s="2"/>
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
@@ -13487,7 +13559,7 @@
       <c r="Q981" s="2"/>
       <c r="R981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H982" s="2"/>
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
@@ -13500,7 +13572,7 @@
       <c r="Q982" s="2"/>
       <c r="R982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H983" s="2"/>
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
@@ -13513,7 +13585,7 @@
       <c r="Q983" s="2"/>
       <c r="R983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H984" s="2"/>
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
@@ -13526,7 +13598,7 @@
       <c r="Q984" s="2"/>
       <c r="R984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H985" s="2"/>
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
@@ -13539,7 +13611,7 @@
       <c r="Q985" s="2"/>
       <c r="R985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H986" s="2"/>
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
@@ -13552,7 +13624,7 @@
       <c r="Q986" s="2"/>
       <c r="R986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H987" s="2"/>
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
@@ -13565,7 +13637,7 @@
       <c r="Q987" s="2"/>
       <c r="R987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H988" s="2"/>
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
@@ -13578,7 +13650,7 @@
       <c r="Q988" s="2"/>
       <c r="R988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H989" s="2"/>
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
@@ -13591,7 +13663,7 @@
       <c r="Q989" s="2"/>
       <c r="R989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H990" s="2"/>
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
@@ -13604,7 +13676,7 @@
       <c r="Q990" s="2"/>
       <c r="R990" s="2"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H991" s="2"/>
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
@@ -13617,7 +13689,7 @@
       <c r="Q991" s="2"/>
       <c r="R991" s="2"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H992" s="2"/>
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
@@ -13630,7 +13702,7 @@
       <c r="Q992" s="2"/>
       <c r="R992" s="2"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H993" s="2"/>
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
@@ -13643,7 +13715,7 @@
       <c r="Q993" s="2"/>
       <c r="R993" s="2"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H994" s="2"/>
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
@@ -13656,7 +13728,7 @@
       <c r="Q994" s="2"/>
       <c r="R994" s="2"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H995" s="2"/>
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
@@ -13669,7 +13741,7 @@
       <c r="Q995" s="2"/>
       <c r="R995" s="2"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H996" s="2"/>
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
@@ -13682,7 +13754,7 @@
       <c r="Q996" s="2"/>
       <c r="R996" s="2"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H997" s="2"/>
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
@@ -13695,7 +13767,7 @@
       <c r="Q997" s="2"/>
       <c r="R997" s="2"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H998" s="2"/>
       <c r="I998" s="2"/>
       <c r="J998" s="2"/>
@@ -13708,7 +13780,7 @@
       <c r="Q998" s="2"/>
       <c r="R998" s="2"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H999" s="2"/>
       <c r="I999" s="2"/>
       <c r="J999" s="2"/>
@@ -13721,7 +13793,7 @@
       <c r="Q999" s="2"/>
       <c r="R999" s="2"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1000" s="2"/>
       <c r="I1000" s="2"/>
       <c r="J1000" s="2"/>
@@ -13735,9 +13807,8 @@
       <c r="R1000" s="2"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>